--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H2">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I2">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J2">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>2976.151194441439</v>
+        <v>3996.959697900754</v>
       </c>
       <c r="R2">
-        <v>26785.36074997295</v>
+        <v>35972.63728110678</v>
       </c>
       <c r="S2">
-        <v>0.04762152047045894</v>
+        <v>0.060009944943563</v>
       </c>
       <c r="T2">
-        <v>0.04762152047045896</v>
+        <v>0.06000994494356301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H3">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I3">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J3">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>4902.953664042002</v>
+        <v>3875.617296151918</v>
       </c>
       <c r="R3">
-        <v>44126.58297637801</v>
+        <v>34880.55566536726</v>
       </c>
       <c r="S3">
-        <v>0.07845236784810199</v>
+        <v>0.058188122508853</v>
       </c>
       <c r="T3">
-        <v>0.07845236784810201</v>
+        <v>0.05818812250885299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H4">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I4">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J4">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>4339.483297344002</v>
+        <v>3946.642858699343</v>
       </c>
       <c r="R4">
-        <v>39055.34967609601</v>
+        <v>35519.78572829409</v>
       </c>
       <c r="S4">
-        <v>0.06943625480508103</v>
+        <v>0.05925449305552005</v>
       </c>
       <c r="T4">
-        <v>0.06943625480508107</v>
+        <v>0.05925449305552005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.07831966666667</v>
+        <v>23.77588366666667</v>
       </c>
       <c r="H5">
-        <v>90.234959</v>
+        <v>71.327651</v>
       </c>
       <c r="I5">
-        <v>0.2269842729019557</v>
+        <v>0.201093431146956</v>
       </c>
       <c r="J5">
-        <v>0.2269842729019557</v>
+        <v>0.2010934311469559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1967.005001275432</v>
+        <v>1574.599131132573</v>
       </c>
       <c r="R5">
-        <v>17703.04501147888</v>
+        <v>14171.39218019315</v>
       </c>
       <c r="S5">
-        <v>0.03147412977831367</v>
+        <v>0.02364087063901992</v>
       </c>
       <c r="T5">
-        <v>0.03147412977831368</v>
+        <v>0.02364087063901991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J6">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>3163.286461981091</v>
+        <v>5374.402703110333</v>
       </c>
       <c r="R6">
-        <v>28469.57815782982</v>
+        <v>48369.624327993</v>
       </c>
       <c r="S6">
-        <v>0.05061587975923725</v>
+        <v>0.08069073363125903</v>
       </c>
       <c r="T6">
-        <v>0.05061587975923727</v>
+        <v>0.08069073363125905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J7">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>5211.242956390006</v>
@@ -883,10 +883,10 @@
         <v>46901.18660751006</v>
       </c>
       <c r="S7">
-        <v>0.08338531778485046</v>
+        <v>0.07824106984734974</v>
       </c>
       <c r="T7">
-        <v>0.08338531778485049</v>
+        <v>0.07824106984734974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J8">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>4612.342542314158</v>
+        <v>5306.745539402114</v>
       </c>
       <c r="R8">
-        <v>41511.08288082743</v>
+        <v>47760.70985461902</v>
       </c>
       <c r="S8">
-        <v>0.07380228706317639</v>
+        <v>0.07967493588095892</v>
       </c>
       <c r="T8">
-        <v>0.07380228706317642</v>
+        <v>0.07967493588095892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>95.90877800000001</v>
       </c>
       <c r="I9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="J9">
-        <v>0.2412566535243296</v>
+        <v>0.2703947904457373</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>2090.686892119219</v>
+        <v>2117.241720280215</v>
       </c>
       <c r="R9">
-        <v>18816.18202907297</v>
+        <v>19055.17548252194</v>
       </c>
       <c r="S9">
-        <v>0.03345316891706545</v>
+        <v>0.03178805108616965</v>
       </c>
       <c r="T9">
-        <v>0.03345316891706546</v>
+        <v>0.03178805108616965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H10">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J10">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>1447.360290111011</v>
+        <v>2440.671203674507</v>
       </c>
       <c r="R10">
-        <v>13026.2426109991</v>
+        <v>21966.04083307056</v>
       </c>
       <c r="S10">
-        <v>0.02315927289325325</v>
+        <v>0.03664398833812899</v>
       </c>
       <c r="T10">
-        <v>0.02315927289325325</v>
+        <v>0.036643988338129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H11">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J11">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>2384.401857957525</v>
+        <v>2366.575659031254</v>
       </c>
       <c r="R11">
-        <v>21459.61672161773</v>
+        <v>21299.18093128129</v>
       </c>
       <c r="S11">
-        <v>0.03815291444218289</v>
+        <v>0.03553152539362139</v>
       </c>
       <c r="T11">
-        <v>0.0381529144421829</v>
+        <v>0.03553152539362139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H12">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J12">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>2110.375244344558</v>
+        <v>2409.946135177243</v>
       </c>
       <c r="R12">
-        <v>18993.37719910102</v>
+        <v>21689.51521659519</v>
       </c>
       <c r="S12">
-        <v>0.03376820306932214</v>
+        <v>0.03618268529574997</v>
       </c>
       <c r="T12">
-        <v>0.03376820306932216</v>
+        <v>0.03618268529574997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.62767266666667</v>
+        <v>14.51831366666667</v>
       </c>
       <c r="H13">
-        <v>43.883018</v>
+        <v>43.554941</v>
       </c>
       <c r="I13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="J13">
-        <v>0.1103868727138606</v>
+        <v>0.1227940694288843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>956.592841994418</v>
+        <v>961.5005021703359</v>
       </c>
       <c r="R13">
-        <v>8609.335577949762</v>
+        <v>8653.504519533024</v>
       </c>
       <c r="S13">
-        <v>0.01530648230910234</v>
+        <v>0.01443587040138396</v>
       </c>
       <c r="T13">
-        <v>0.01530648230910234</v>
+        <v>0.01443587040138396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H14">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J14">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>5524.908676977627</v>
+        <v>8064.098972612954</v>
       </c>
       <c r="R14">
-        <v>49724.17809279864</v>
+        <v>72576.89075351658</v>
       </c>
       <c r="S14">
-        <v>0.08840429617605013</v>
+        <v>0.1210735588903009</v>
       </c>
       <c r="T14">
-        <v>0.08840429617605015</v>
+        <v>0.1210735588903009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H15">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J15">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>9101.812868875038</v>
+        <v>7819.283610128537</v>
       </c>
       <c r="R15">
-        <v>81916.31581987534</v>
+        <v>70373.55249115684</v>
       </c>
       <c r="S15">
-        <v>0.1456384906327877</v>
+        <v>0.1173979260257153</v>
       </c>
       <c r="T15">
-        <v>0.1456384906327877</v>
+        <v>0.1173979260257153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H16">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J16">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>8055.789963854644</v>
+        <v>7962.5818190819</v>
       </c>
       <c r="R16">
-        <v>72502.1096746918</v>
+        <v>71663.2363717371</v>
       </c>
       <c r="S16">
-        <v>0.1289010341228382</v>
+        <v>0.1195493907088141</v>
       </c>
       <c r="T16">
-        <v>0.1289010341228383</v>
+        <v>0.1195493907088141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.83720666666667</v>
+        <v>47.96923</v>
       </c>
       <c r="H17">
-        <v>167.51162</v>
+        <v>143.90769</v>
       </c>
       <c r="I17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="J17">
-        <v>0.4213722008598541</v>
+        <v>0.4057177089784224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>3651.535923142045</v>
+        <v>3176.845451384564</v>
       </c>
       <c r="R17">
-        <v>32863.82330827841</v>
+        <v>28591.60906246107</v>
       </c>
       <c r="S17">
-        <v>0.05842837992817799</v>
+        <v>0.04769683335359214</v>
       </c>
       <c r="T17">
-        <v>0.05842837992817801</v>
+        <v>0.04769683335359214</v>
       </c>
     </row>
   </sheetData>
